--- a/data/trans_camb/P1805-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Clase-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,22</t>
+          <t>1,15; 3,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,3</t>
+          <t>2,6; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,95</t>
+          <t>2,47; 7,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,37</t>
+          <t>3,69; 7,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,58</t>
+          <t>2,13; 4,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,82</t>
+          <t>3,63; 6,56</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,03</t>
+          <t>0,77; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,71</t>
+          <t>2,06; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,38</t>
+          <t>0,93; 4,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,44</t>
+          <t>4,28; 8,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,41</t>
+          <t>1,22; 3,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,12</t>
+          <t>3,47; 6,28</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,27</t>
+          <t>1,26; 3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,81</t>
+          <t>0,54; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,21</t>
+          <t>3,38; 12,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,36</t>
+          <t>2,19; 6,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,07</t>
+          <t>2,09; 5,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,99</t>
+          <t>0,84; 4,18</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,1</t>
+          <t>0,7; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,32</t>
+          <t>2,08; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,95</t>
+          <t>2,79; 5,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,76</t>
+          <t>1,7; 4,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,21</t>
+          <t>1,76; 3,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,12</t>
+          <t>2,17; 4,07</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,09</t>
+          <t>0,81; 2,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,09</t>
+          <t>1,04; 3,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,62</t>
+          <t>2,48; 5,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,42</t>
+          <t>2,03; 4,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,91</t>
+          <t>1,96; 3,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,73</t>
+          <t>2,05; 3,81</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,42</t>
+          <t>1,0; 4,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,93; 13,05</t>
+          <t>2,15; 13,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,36</t>
+          <t>2,15; 4,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,87</t>
+          <t>2,1; 5,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,06</t>
+          <t>2,16; 4,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,64</t>
+          <t>2,5; 5,78</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,31</t>
+          <t>1,37; 2,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,98</t>
+          <t>2,35; 4,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,41</t>
+          <t>3,12; 4,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,62</t>
+          <t>3,09; 4,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,2</t>
+          <t>2,4; 3,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,05</t>
+          <t>2,92; 4,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1805-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
